--- a/Benchmarks/Water Chemistry/TSS v2/TSSv2 Var selection decisions 1-23-26.xlsx
+++ b/Benchmarks/Water Chemistry/TSS v2/TSSv2 Var selection decisions 1-23-26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/adam_thompson_deq_oregon_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/sabine_berzins_deq_oregon_gov/Documents/Documents/BioMonORDEQ/Benchmarks/Water Chemistry/TSS v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="8_{6B8D232A-EEA6-4563-A1A6-87C6EEBA49F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B954B456-EB35-4E51-8B68-1AB5631D7763}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="8_{6B8D232A-EEA6-4563-A1A6-87C6EEBA49F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D0A2CC-3053-4A07-B402-7FA566A01697}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decisions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="182">
   <si>
     <t>num_vars</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>kept all</t>
+  </si>
+  <si>
+    <t>keep pct_erode</t>
+  </si>
+  <si>
+    <t>all 0s</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1022,8 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16:D18"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,6 +1153,12 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1557,6 +1569,12 @@
       <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
@@ -1582,6 +1600,12 @@
       <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -1625,6 +1649,12 @@
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1637,6 +1667,12 @@
       <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,6 +1711,12 @@
       <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
@@ -1761,11 +1803,23 @@
       <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
@@ -1786,6 +1840,12 @@
       <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
@@ -1969,8 +2029,14 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="7" t="s">
         <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,7 +2281,7 @@
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D95:D98"/>
   </mergeCells>
-  <conditionalFormatting sqref="C12 B60:B63 B72 B59:C59 B64:C64 B71:C71 B73:C73 B78:C78 B89:C89 B2:B58 B74:B77 B65:B70 B79:B88 B90:B140">
+  <conditionalFormatting sqref="B2:B58 C12 B59:C59 B60:B63 B64:C64 B65:B70 B71:C71 B72 B73:C73 B74:B77 B78:C78 B79:B88 B89:C89 B90:B140">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"KEEP"</formula>
     </cfRule>
@@ -2242,8 +2308,8 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
-        <f>_xlfn.TEXTJOIN(", ", TRUE, A4:A83)</f>
-        <v>BFIWS, CANALDENSWS, CAOWS, CLAYWS, COALMINEDENSWS, COMPSTRGTHWS, DAMDENSWS, ELEVWS, FE2O3WS, HYDRLCONDWS, KFFACTWS, MINEDENSWS, MSST2008, NHD_pSLOPE, NPDESDENSWS, NWS, OMWS, PCT_EROD, PCTAGDRAINAGEWS, PCTAGSLPMID2001WS, PCTALKINTRUVOLWS, PCTALLUVCOASTWS, PCTBL2001WS, PCTBURNAREA2002WS, PCTCARBRESIDWS, PCTCOASTCRSWS, PCTCOLLUVSEDWS, PCTCONIF2001WS, PCTCROP2001WS, PCTDECID2001WS, PCTEOLCRSWS, PCTEOLFINEWS, PCTEXTRUVOLWS, PCTFRSTLOSS2002WS, PCTGLACLAKECRSWS, PCTGLACLAKEFINEWS, PCTGLACTILCLAYWS, PCTGLACTILCRSWS, PCTGLACTILLOAMWS, PCTGRS2001WS, PCTHBWET2001WS, PCTHYDRICWS, PCTICE2001WS, PCTIMP2001WS, PCTINCVEGRESP2002WS, PCTNONAGINTRODMANAGVEGWS, PCTNONCARBRESIDWS, PCTNONPROCMASK2002WS, PCTOW2001WS, PCTSALLAKEWS, PCTSHRB2001WS, PCTSILICICWS, PCTURBHI2001WS, PCTURBLO2001WS, PCTURBOP2001WS, PCTWATERWS, PCTWDWET2001WS, PESTIC1997WS, POPDEN2010WS, PRECIP_MINUS_EVTWS, RCKDEPWS, RDCRSSLPWTDWS, RDCRSWS, RDDENSWS, ROCKNWS, SANDWS, SEDWS, SEPTICWS, STRMPOW_CAT, SUPERFUNDDENSWS, SW_FLUXWS, SWS, TMAX9120WS, TRIDENSWS, WATERINPUTWS, WETINDEXWS, WETTEDWIDTH, WTDEPWS, WWTPALLDENSWS, WWTPMAJORDENSWS</v>
+        <f>_xlfn.TEXTJOIN(", ", TRUE, A4:A74)</f>
+        <v>BFIWS, CANALDENSWS, CAOWS, CLAYWS, COMPSTRGTHWS, DAMDENSWS, ELEVWS, FE2O3WS, HYDRLCONDWS, KFFACTWS, MINEDENSWS, MSST2008, NHD_pSLOPE, NPDESDENSWS, NWS, OMWS, PCT_EROD, PCTAGDRAINAGEWS, PCTAGSLPMID2001WS, PCTALKINTRUVOLWS, PCTALLUVCOASTWS, PCTBL2001WS, PCTBURNAREA2002WS, PCTCARBRESIDWS, PCTCOLLUVSEDWS, PCTCONIF2001WS, PCTCROP2001WS, PCTDECID2001WS, PCTEOLFINEWS, PCTEXTRUVOLWS, PCTFRSTLOSS2002WS, PCTGLACLAKECRSWS, PCTGLACLAKEFINEWS, PCTGLACTILCRSWS, PCTGRS2001WS, PCTHBWET2001WS, PCTICE2001WS, PCTIMP2001WS, PCTINCVEGRESP2002WS, PCTNONAGINTRODMANAGVEGWS, PCTOW2001WS, PCTSALLAKEWS, PCTSHRB2001WS, PCTURBHI2001WS, PCTURBLO2001WS, PCTURBOP2001WS, PCTWATERWS, PCTWDWET2001WS, PESTIC1997WS, POPDEN2010WS, PRECIP_MINUS_EVTWS, RCKDEPWS, RDCRSSLPWTDWS, RDCRSWS, RDDENSWS, ROCKNWS, SANDWS, SEDWS, SEPTICWS, STRMPOW_CAT, SUPERFUNDDENSWS, SW_FLUXWS, SWS, TMAX9120WS, TRIDENSWS, WATERINPUTWS, WETINDEXWS, WETTEDWIDTH, WTDEPWS, WWTPALLDENSWS, WWTPMAJORDENSWS</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -2268,383 +2334,365 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="A75" s="5"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="A79" s="5"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="A82" s="5"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="A83" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
